--- a/excel/AAA/AAA/Codigo123NombreSeparadoPorMayusculasSinEspacios.xlsx
+++ b/excel/AAA/AAA/Codigo123NombreSeparadoPorMayusculasSinEspacios.xlsx
@@ -641,7 +641,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>'EDITAR' para poner tu nombre y ajustar los parámetros.</t>
+          <t>~</t>
         </is>
       </c>
     </row>
